--- a/most_important_problems.xlsx
+++ b/most_important_problems.xlsx
@@ -1200,7 +1200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1210,6 +1210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1273,6 +1279,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1557,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1636,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1668,7 +1680,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1712,7 +1724,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1756,7 +1768,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2805,7 +2817,7 @@
       </c>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
         <v>372</v>
       </c>

--- a/most_important_problems.xlsx
+++ b/most_important_problems.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1236.SKYWEB\Desktop\code-forcess-git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\competitive programming\Competitive-programming\Competitive-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ABACBF-E2A2-4382-9AC3-787D2B2B03B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t>Introductory Problems</t>
   </si>
@@ -1170,13 +1171,19 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/348180/O</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contests/348180</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,16 +1192,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1251,41 +1275,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1566,77 +1592,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" customWidth="1"/>
+    <col min="9" max="9" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.44140625" customWidth="1"/>
     <col min="14" max="14" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1666,1814 +1692,2320 @@
       <c r="J2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>189</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>190</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>191</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>194</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="5" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="9" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="12"/>
+      <c r="K21" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="6" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
+      <c r="M25" s="9"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="1" t="s">
+      <c r="K26" s="10"/>
+      <c r="L26" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="5" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="1" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="1" t="s">
+      <c r="K28" s="10"/>
+      <c r="L28" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="5" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="1" t="s">
+      <c r="K29" s="10"/>
+      <c r="L29" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
+      <c r="M29" s="9"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="5" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="1" t="s">
+      <c r="K30" s="10"/>
+      <c r="L30" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
+      <c r="M30" s="9"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="5" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="1" t="s">
+      <c r="K31" s="10"/>
+      <c r="L31" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
+      <c r="M31" s="9"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="5" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="1" t="s">
+      <c r="K32" s="10"/>
+      <c r="L32" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+      <c r="M32" s="9"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="5" t="s">
+      <c r="C33" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="1" t="s">
+      <c r="K33" s="10"/>
+      <c r="L33" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="5" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="1" t="s">
+      <c r="K34" s="10"/>
+      <c r="L34" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="1" t="s">
+      <c r="K35" s="10"/>
+      <c r="L35" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="M35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5" t="s">
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="1" t="s">
+      <c r="K36" s="10"/>
+      <c r="L36" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="6" t="s">
+      <c r="M36" s="9"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="1" t="s">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="M37" s="11"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="6" t="s">
+      <c r="M37" s="9"/>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="M38" s="11"/>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="6" t="s">
+      <c r="M38" s="9"/>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="M39" s="11"/>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="6" t="s">
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="6" t="s">
+      <c r="M40" s="9"/>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="6" t="s">
+      <c r="M41" s="9"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="6" t="s">
+      <c r="M42" s="9"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="M43" s="11"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6" t="s">
+      <c r="M43" s="9"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="M44" s="11"/>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="6" t="s">
+      <c r="M44" s="9"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="M45" s="11"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="6" t="s">
+      <c r="M45" s="9"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="M46" s="11"/>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="6" t="s">
+      <c r="M46" s="9"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="M47" s="11"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="6" t="s">
+      <c r="M47" s="9"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="M48" s="11"/>
-    </row>
-    <row r="49" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="6"/>
-      <c r="L49" s="1" t="s">
+      <c r="M48" s="9"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="M49" s="11"/>
-    </row>
-    <row r="50" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="L50" s="1" t="s">
+      <c r="M49" s="9"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="M50" s="11"/>
-    </row>
-    <row r="51" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="6"/>
-      <c r="L51" s="1" t="s">
+      <c r="M50" s="9"/>
+      <c r="N50" s="10"/>
+    </row>
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="M51" s="11"/>
-    </row>
-    <row r="52" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="L52" s="1" t="s">
+      <c r="M51" s="9"/>
+      <c r="N51" s="10"/>
+    </row>
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="M52" s="11"/>
-    </row>
-    <row r="53" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="6"/>
-      <c r="L53" s="1" t="s">
+      <c r="M52" s="9"/>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="M53" s="11"/>
-    </row>
-    <row r="54" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="6"/>
-      <c r="L54" s="1" t="s">
+      <c r="M53" s="9"/>
+      <c r="N53" s="10"/>
+    </row>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="M54" s="11"/>
-    </row>
-    <row r="55" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L55" s="1" t="s">
+      <c r="M54" s="9"/>
+      <c r="N54" s="10"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="M55" s="11"/>
-    </row>
-    <row r="56" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L56" s="1" t="s">
+      <c r="M55" s="9"/>
+      <c r="N55" s="10"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="M56" s="11"/>
-    </row>
-    <row r="57" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L57" s="1" t="s">
+      <c r="M56" s="9"/>
+      <c r="N56" s="10"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="M57" s="11"/>
-    </row>
-    <row r="58" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L58" s="1" t="s">
+      <c r="M57" s="9"/>
+      <c r="N57" s="10"/>
+    </row>
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="M58" s="11"/>
-    </row>
-    <row r="59" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L59" s="1" t="s">
+      <c r="M58" s="9"/>
+      <c r="N58" s="10"/>
+    </row>
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="M59" s="11"/>
-    </row>
-    <row r="60" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L60" s="1" t="s">
+      <c r="M59" s="9"/>
+      <c r="N59" s="10"/>
+    </row>
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="M60" s="11"/>
-    </row>
-    <row r="61" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L61" s="1" t="s">
+      <c r="M60" s="9"/>
+      <c r="N60" s="10"/>
+    </row>
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="M61" s="11"/>
-    </row>
-    <row r="62" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L62" s="1" t="s">
+      <c r="M61" s="9"/>
+      <c r="N61" s="10"/>
+    </row>
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="M62" s="11"/>
-    </row>
-    <row r="63" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L63" s="1" t="s">
+      <c r="M62" s="9"/>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="M63" s="11"/>
-    </row>
-    <row r="64" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L64" s="1" t="s">
+      <c r="M63" s="9"/>
+      <c r="N63" s="10"/>
+    </row>
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="M64" s="11"/>
-    </row>
-    <row r="65" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L65" s="1" t="s">
+      <c r="M64" s="9"/>
+      <c r="N64" s="10"/>
+    </row>
+    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="M65" s="11"/>
-    </row>
-    <row r="66" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L66" s="1" t="s">
+      <c r="M65" s="9"/>
+      <c r="N65" s="10"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="M66" s="11"/>
-    </row>
-    <row r="67" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L67" s="1" t="s">
+      <c r="M66" s="9"/>
+      <c r="N66" s="10"/>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="M67" s="11"/>
-    </row>
-    <row r="68" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L68" s="1" t="s">
+      <c r="M67" s="9"/>
+      <c r="N67" s="10"/>
+    </row>
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="M68" s="11"/>
-    </row>
-    <row r="69" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L69" s="1" t="s">
+      <c r="M68" s="9"/>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L70" s="1" t="s">
+      <c r="M69" s="9"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="71" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L71" s="1" t="s">
+      <c r="M70" s="9"/>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="M71" s="11"/>
-    </row>
-    <row r="72" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L72" s="1" t="s">
+      <c r="M71" s="9"/>
+      <c r="N71" s="10"/>
+    </row>
+    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L73" s="1" t="s">
+      <c r="M72" s="9"/>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L74" s="1" t="s">
+      <c r="M73" s="9"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="M74" s="11"/>
-    </row>
-    <row r="75" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L75" s="1" t="s">
+      <c r="M74" s="9"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="M75" s="11"/>
-    </row>
-    <row r="76" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L76" s="1" t="s">
+      <c r="M75" s="9"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="M76" s="11"/>
-    </row>
-    <row r="77" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L77" s="1" t="s">
+      <c r="M76" s="9"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="M77" s="11"/>
-    </row>
-    <row r="78" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L78" s="1" t="s">
+      <c r="M77" s="9"/>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="M78" s="11"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://cses.fi/problemset/task/1068"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://cses.fi/problemset/task/1083"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://cses.fi/problemset/task/1069"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://cses.fi/problemset/task/1094"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://cses.fi/problemset/task/1070"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://cses.fi/problemset/task/1071"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://cses.fi/problemset/task/1072"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://cses.fi/problemset/task/1092"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://cses.fi/problemset/task/1617"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://cses.fi/problemset/task/1618"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://cses.fi/problemset/task/1754"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://cses.fi/problemset/task/1755"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://cses.fi/problemset/task/2205"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://cses.fi/problemset/task/2165"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://cses.fi/problemset/task/1622"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://cses.fi/problemset/task/1623"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://cses.fi/problemset/task/1624"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://cses.fi/problemset/task/2431"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://cses.fi/problemset/task/1625"/>
-    <hyperlink ref="B2" r:id="rId20" display="https://cses.fi/problemset/task/1621"/>
-    <hyperlink ref="B3" r:id="rId21" display="https://cses.fi/problemset/task/1084"/>
-    <hyperlink ref="B4" r:id="rId22" display="https://cses.fi/problemset/task/1090"/>
-    <hyperlink ref="B5" r:id="rId23" display="https://cses.fi/problemset/task/1091"/>
-    <hyperlink ref="B6" r:id="rId24" display="https://cses.fi/problemset/task/1619"/>
-    <hyperlink ref="B7" r:id="rId25" display="https://cses.fi/problemset/task/1629"/>
-    <hyperlink ref="B8" r:id="rId26" display="https://cses.fi/problemset/task/1640"/>
-    <hyperlink ref="B9" r:id="rId27" display="https://cses.fi/problemset/task/1643"/>
-    <hyperlink ref="B10" r:id="rId28" display="https://cses.fi/problemset/task/1074"/>
-    <hyperlink ref="B11" r:id="rId29" display="https://cses.fi/problemset/task/2183"/>
-    <hyperlink ref="B12" r:id="rId30" display="https://cses.fi/problemset/task/2216"/>
-    <hyperlink ref="B13" r:id="rId31" display="https://cses.fi/problemset/task/2217"/>
-    <hyperlink ref="B14" r:id="rId32" display="https://cses.fi/problemset/task/1141"/>
-    <hyperlink ref="B15" r:id="rId33" display="https://cses.fi/problemset/task/1073"/>
-    <hyperlink ref="B16" r:id="rId34" display="https://cses.fi/problemset/task/1163"/>
-    <hyperlink ref="B17" r:id="rId35" display="https://cses.fi/problemset/task/2162"/>
-    <hyperlink ref="B18" r:id="rId36" display="https://cses.fi/problemset/task/2163"/>
-    <hyperlink ref="B19" r:id="rId37" display="https://cses.fi/problemset/task/2168"/>
-    <hyperlink ref="B20" r:id="rId38" display="https://cses.fi/problemset/task/2169"/>
-    <hyperlink ref="B21" r:id="rId39" display="https://cses.fi/problemset/task/1164"/>
-    <hyperlink ref="B22" r:id="rId40" display="https://cses.fi/problemset/task/1620"/>
-    <hyperlink ref="B23" r:id="rId41" display="https://cses.fi/problemset/task/1630"/>
-    <hyperlink ref="B24" r:id="rId42" display="https://cses.fi/problemset/task/1631"/>
-    <hyperlink ref="B25" r:id="rId43" display="https://cses.fi/problemset/task/1641"/>
-    <hyperlink ref="B26" r:id="rId44" display="https://cses.fi/problemset/task/1642"/>
-    <hyperlink ref="B27" r:id="rId45" display="https://cses.fi/problemset/task/1645"/>
-    <hyperlink ref="B28" r:id="rId46" display="https://cses.fi/problemset/task/1660"/>
-    <hyperlink ref="B29" r:id="rId47" display="https://cses.fi/problemset/task/1661"/>
-    <hyperlink ref="B30" r:id="rId48" display="https://cses.fi/problemset/task/1662"/>
-    <hyperlink ref="B31" r:id="rId49" display="https://cses.fi/problemset/task/2428"/>
-    <hyperlink ref="B32" r:id="rId50" display="https://cses.fi/problemset/task/1085"/>
-    <hyperlink ref="B33" r:id="rId51" display="https://cses.fi/problemset/task/1076"/>
-    <hyperlink ref="B34" r:id="rId52" display="https://cses.fi/problemset/task/1077"/>
-    <hyperlink ref="B35" r:id="rId53" display="https://cses.fi/problemset/task/1632"/>
-    <hyperlink ref="B36" r:id="rId54" display="https://cses.fi/problemset/task/1644"/>
-    <hyperlink ref="J2" r:id="rId55" display="https://cses.fi/problemset/task/1633"/>
-    <hyperlink ref="J3" r:id="rId56" display="https://cses.fi/problemset/task/1634"/>
-    <hyperlink ref="J4" r:id="rId57" display="https://cses.fi/problemset/task/1635"/>
-    <hyperlink ref="J5" r:id="rId58" display="https://cses.fi/problemset/task/1636"/>
-    <hyperlink ref="J6" r:id="rId59" display="https://cses.fi/problemset/task/1637"/>
-    <hyperlink ref="J7" r:id="rId60" display="https://cses.fi/problemset/task/1638"/>
-    <hyperlink ref="J8" r:id="rId61" display="https://cses.fi/problemset/task/1158"/>
-    <hyperlink ref="J9" r:id="rId62" display="https://cses.fi/problemset/task/1746"/>
-    <hyperlink ref="J10" r:id="rId63" display="https://cses.fi/problemset/task/2413"/>
-    <hyperlink ref="J11" r:id="rId64" display="https://cses.fi/problemset/task/1639"/>
-    <hyperlink ref="J12" r:id="rId65" display="https://cses.fi/problemset/task/1744"/>
-    <hyperlink ref="J13" r:id="rId66" display="https://cses.fi/problemset/task/1745"/>
-    <hyperlink ref="J14" r:id="rId67" display="https://cses.fi/problemset/task/1097"/>
-    <hyperlink ref="J15" r:id="rId68" display="https://cses.fi/problemset/task/1093"/>
-    <hyperlink ref="J16" r:id="rId69" display="https://cses.fi/problemset/task/1145"/>
-    <hyperlink ref="J17" r:id="rId70" display="https://cses.fi/problemset/task/1140"/>
-    <hyperlink ref="J18" r:id="rId71" display="https://cses.fi/problemset/task/1653"/>
-    <hyperlink ref="J19" r:id="rId72" display="https://cses.fi/problemset/task/2181"/>
-    <hyperlink ref="J20" r:id="rId73" display="https://cses.fi/problemset/task/2220"/>
-    <hyperlink ref="I2" r:id="rId74" display="https://cses.fi/problemset/task/1192"/>
-    <hyperlink ref="I3" r:id="rId75" display="https://cses.fi/problemset/task/1193"/>
-    <hyperlink ref="I4" r:id="rId76" display="https://cses.fi/problemset/task/1666"/>
-    <hyperlink ref="I5" r:id="rId77" display="https://cses.fi/problemset/task/1667"/>
-    <hyperlink ref="I6" r:id="rId78" display="https://cses.fi/problemset/task/1668"/>
-    <hyperlink ref="I7" r:id="rId79" display="https://cses.fi/problemset/task/1669"/>
-    <hyperlink ref="I8" r:id="rId80" display="https://cses.fi/problemset/task/1194"/>
-    <hyperlink ref="I9" r:id="rId81" display="https://cses.fi/problemset/task/1671"/>
-    <hyperlink ref="I10" r:id="rId82" display="https://cses.fi/problemset/task/1672"/>
-    <hyperlink ref="I11" r:id="rId83" display="https://cses.fi/problemset/task/1673"/>
-    <hyperlink ref="I12" r:id="rId84" display="https://cses.fi/problemset/task/1195"/>
-    <hyperlink ref="I13" r:id="rId85" display="https://cses.fi/problemset/task/1197"/>
-    <hyperlink ref="I14" r:id="rId86" display="https://cses.fi/problemset/task/1196"/>
-    <hyperlink ref="I15" r:id="rId87" display="https://cses.fi/problemset/task/1678"/>
-    <hyperlink ref="I16" r:id="rId88" display="https://cses.fi/problemset/task/1679"/>
-    <hyperlink ref="I17" r:id="rId89" display="https://cses.fi/problemset/task/1680"/>
-    <hyperlink ref="I18" r:id="rId90" display="https://cses.fi/problemset/task/1681"/>
-    <hyperlink ref="I19" r:id="rId91" display="https://cses.fi/problemset/task/1202"/>
-    <hyperlink ref="I20" r:id="rId92" display="https://cses.fi/problemset/task/1750"/>
-    <hyperlink ref="I21" r:id="rId93" display="https://cses.fi/problemset/task/1160"/>
-    <hyperlink ref="I22" r:id="rId94" display="https://cses.fi/problemset/task/1751"/>
-    <hyperlink ref="I23" r:id="rId95" display="https://cses.fi/problemset/task/1675"/>
-    <hyperlink ref="I24" r:id="rId96" display="https://cses.fi/problemset/task/1676"/>
-    <hyperlink ref="I25" r:id="rId97" display="https://cses.fi/problemset/task/1682"/>
-    <hyperlink ref="I26" r:id="rId98" display="https://cses.fi/problemset/task/1683"/>
-    <hyperlink ref="I27" r:id="rId99" display="https://cses.fi/problemset/task/1684"/>
-    <hyperlink ref="I28" r:id="rId100" display="https://cses.fi/problemset/task/1686"/>
-    <hyperlink ref="I29" r:id="rId101" display="https://cses.fi/problemset/task/1691"/>
-    <hyperlink ref="I30" r:id="rId102" display="https://cses.fi/problemset/task/1692"/>
-    <hyperlink ref="I31" r:id="rId103" display="https://cses.fi/problemset/task/1693"/>
-    <hyperlink ref="I32" r:id="rId104" display="https://cses.fi/problemset/task/1690"/>
-    <hyperlink ref="I33" r:id="rId105" display="https://cses.fi/problemset/task/1689"/>
-    <hyperlink ref="I34" r:id="rId106" display="https://cses.fi/problemset/task/1694"/>
-    <hyperlink ref="I35" r:id="rId107" display="https://cses.fi/problemset/task/1695"/>
-    <hyperlink ref="I36" r:id="rId108" display="https://cses.fi/problemset/task/1696"/>
-    <hyperlink ref="I37" r:id="rId109" display="https://cses.fi/problemset/task/1711"/>
-    <hyperlink ref="G2" r:id="rId110" display="https://cses.fi/problemset/task/1646"/>
-    <hyperlink ref="G3" r:id="rId111" display="https://cses.fi/problemset/task/1647"/>
-    <hyperlink ref="G4" r:id="rId112" display="https://cses.fi/problemset/task/1648"/>
-    <hyperlink ref="G5" r:id="rId113" display="https://cses.fi/problemset/task/1649"/>
-    <hyperlink ref="G6" r:id="rId114" display="https://cses.fi/problemset/task/1650"/>
-    <hyperlink ref="G7" r:id="rId115" display="https://cses.fi/problemset/task/1651"/>
-    <hyperlink ref="G8" r:id="rId116" display="https://cses.fi/problemset/task/1652"/>
-    <hyperlink ref="G9" r:id="rId117" display="https://cses.fi/problemset/task/1143"/>
-    <hyperlink ref="G10" r:id="rId118" display="https://cses.fi/problemset/task/1749"/>
-    <hyperlink ref="G11" r:id="rId119" display="https://cses.fi/problemset/task/1144"/>
-    <hyperlink ref="G12" r:id="rId120" display="https://cses.fi/problemset/task/2166"/>
-    <hyperlink ref="G13" r:id="rId121" display="https://cses.fi/problemset/task/2206"/>
-    <hyperlink ref="G14" r:id="rId122" display="https://cses.fi/problemset/task/1190"/>
-    <hyperlink ref="G15" r:id="rId123" display="https://cses.fi/problemset/task/1734"/>
-    <hyperlink ref="G16" r:id="rId124" display="https://cses.fi/problemset/task/2416"/>
-    <hyperlink ref="G17" r:id="rId125" display="https://cses.fi/problemset/task/1739"/>
-    <hyperlink ref="G18" r:id="rId126" display="https://cses.fi/problemset/task/1735"/>
-    <hyperlink ref="G19" r:id="rId127" display="https://cses.fi/problemset/task/1736"/>
-    <hyperlink ref="G20" r:id="rId128" display="https://cses.fi/problemset/task/1737"/>
-    <hyperlink ref="H2" r:id="rId129" display="https://cses.fi/problemset/task/1674"/>
-    <hyperlink ref="H3" r:id="rId130" display="https://cses.fi/problemset/task/1130"/>
-    <hyperlink ref="H4" r:id="rId131" display="https://cses.fi/problemset/task/1131"/>
-    <hyperlink ref="H5" r:id="rId132" display="https://cses.fi/problemset/task/1132"/>
-    <hyperlink ref="H6" r:id="rId133" display="https://cses.fi/problemset/task/1133"/>
-    <hyperlink ref="H7" r:id="rId134" display="https://cses.fi/problemset/task/1687"/>
-    <hyperlink ref="H8" r:id="rId135" display="https://cses.fi/problemset/task/1688"/>
-    <hyperlink ref="H9" r:id="rId136" display="https://cses.fi/problemset/task/1135"/>
-    <hyperlink ref="H10" r:id="rId137" display="https://cses.fi/problemset/task/1136"/>
-    <hyperlink ref="H11" r:id="rId138" display="https://cses.fi/problemset/task/1137"/>
-    <hyperlink ref="H12" r:id="rId139" display="https://cses.fi/problemset/task/1138"/>
-    <hyperlink ref="H13" r:id="rId140" display="https://cses.fi/problemset/task/2134"/>
-    <hyperlink ref="H14" r:id="rId141" display="https://cses.fi/problemset/task/1139"/>
-    <hyperlink ref="H15" r:id="rId142" display="https://cses.fi/problemset/task/2079"/>
-    <hyperlink ref="H16" r:id="rId143" display="https://cses.fi/problemset/task/2080"/>
-    <hyperlink ref="H17" r:id="rId144" display="https://cses.fi/problemset/task/2081"/>
-    <hyperlink ref="C2" r:id="rId145" display="https://cses.fi/problemset/task/2164"/>
-    <hyperlink ref="C3" r:id="rId146" display="https://cses.fi/problemset/task/1095"/>
-    <hyperlink ref="C4" r:id="rId147" display="https://cses.fi/problemset/task/1712"/>
-    <hyperlink ref="C5" r:id="rId148" display="https://cses.fi/problemset/task/1713"/>
-    <hyperlink ref="C6" r:id="rId149" display="https://cses.fi/problemset/task/1081"/>
-    <hyperlink ref="C7" r:id="rId150" display="https://cses.fi/problemset/task/1082"/>
-    <hyperlink ref="C8" r:id="rId151" display="https://cses.fi/problemset/task/2182"/>
-    <hyperlink ref="C9" r:id="rId152" display="https://cses.fi/problemset/task/2185"/>
-    <hyperlink ref="C10" r:id="rId153" display="https://cses.fi/problemset/task/2417"/>
-    <hyperlink ref="C11" r:id="rId154" display="https://cses.fi/problemset/task/1079"/>
-    <hyperlink ref="C12" r:id="rId155" display="https://cses.fi/problemset/task/1715"/>
-    <hyperlink ref="C13" r:id="rId156" display="https://cses.fi/problemset/task/1716"/>
-    <hyperlink ref="C14" r:id="rId157" display="https://cses.fi/problemset/task/1717"/>
-    <hyperlink ref="C15" r:id="rId158" display="https://cses.fi/problemset/task/2064"/>
-    <hyperlink ref="C16" r:id="rId159" display="https://cses.fi/problemset/task/2187"/>
-    <hyperlink ref="C17" r:id="rId160" display="https://cses.fi/problemset/task/2209"/>
-    <hyperlink ref="C18" r:id="rId161" display="https://cses.fi/problemset/task/2210"/>
-    <hyperlink ref="C19" r:id="rId162" display="https://cses.fi/problemset/task/1722"/>
-    <hyperlink ref="C20" r:id="rId163" display="https://cses.fi/problemset/task/1096"/>
-    <hyperlink ref="C21" r:id="rId164" display="https://cses.fi/problemset/task/1723"/>
-    <hyperlink ref="C22" r:id="rId165" display="https://cses.fi/problemset/task/1724"/>
-    <hyperlink ref="C23" r:id="rId166" display="https://cses.fi/problemset/task/1725"/>
-    <hyperlink ref="C24" r:id="rId167" display="https://cses.fi/problemset/task/1726"/>
-    <hyperlink ref="C25" r:id="rId168" display="https://cses.fi/problemset/task/1727"/>
-    <hyperlink ref="C26" r:id="rId169" display="https://cses.fi/problemset/task/1728"/>
-    <hyperlink ref="C27" r:id="rId170" display="https://cses.fi/problemset/task/1729"/>
-    <hyperlink ref="C28" r:id="rId171" display="https://cses.fi/problemset/task/1730"/>
-    <hyperlink ref="C29" r:id="rId172" display="https://cses.fi/problemset/task/1098"/>
-    <hyperlink ref="C30" r:id="rId173" display="https://cses.fi/problemset/task/1099"/>
-    <hyperlink ref="C31" r:id="rId174" display="https://cses.fi/problemset/task/2207"/>
-    <hyperlink ref="C32" r:id="rId175" display="https://cses.fi/problemset/task/2208"/>
-    <hyperlink ref="D2" r:id="rId176" display="https://cses.fi/problemset/task/1731"/>
-    <hyperlink ref="D3" r:id="rId177" display="https://cses.fi/problemset/task/1753"/>
-    <hyperlink ref="D4" r:id="rId178" display="https://cses.fi/problemset/task/1732"/>
-    <hyperlink ref="D5" r:id="rId179" display="https://cses.fi/problemset/task/1733"/>
-    <hyperlink ref="D6" r:id="rId180" display="https://cses.fi/problemset/task/1110"/>
-    <hyperlink ref="D7" r:id="rId181" display="https://cses.fi/problemset/task/1111"/>
-    <hyperlink ref="D8" r:id="rId182" display="https://cses.fi/problemset/task/1112"/>
-    <hyperlink ref="D9" r:id="rId183" display="https://cses.fi/problemset/task/2420"/>
-    <hyperlink ref="D10" r:id="rId184" display="https://cses.fi/problemset/task/2102"/>
-    <hyperlink ref="D11" r:id="rId185" display="https://cses.fi/problemset/task/2103"/>
-    <hyperlink ref="D12" r:id="rId186" display="https://cses.fi/problemset/task/2104"/>
-    <hyperlink ref="D13" r:id="rId187" display="https://cses.fi/problemset/task/2105"/>
-    <hyperlink ref="D14" r:id="rId188" display="https://cses.fi/problemset/task/2106"/>
-    <hyperlink ref="D15" r:id="rId189" display="https://cses.fi/problemset/task/2107"/>
-    <hyperlink ref="D16" r:id="rId190" display="https://cses.fi/problemset/task/2108"/>
-    <hyperlink ref="D17" r:id="rId191" display="https://cses.fi/problemset/task/2109"/>
-    <hyperlink ref="D18" r:id="rId192" display="https://cses.fi/problemset/task/2110"/>
-    <hyperlink ref="F2" r:id="rId193" display="https://cses.fi/problemset/task/2189"/>
-    <hyperlink ref="F3" r:id="rId194" display="https://cses.fi/problemset/task/2190"/>
-    <hyperlink ref="F4" r:id="rId195" display="https://cses.fi/problemset/task/2191"/>
-    <hyperlink ref="F5" r:id="rId196" display="https://cses.fi/problemset/task/2192"/>
-    <hyperlink ref="F6" r:id="rId197" display="https://cses.fi/problemset/task/2193"/>
-    <hyperlink ref="F7" r:id="rId198" display="https://cses.fi/problemset/task/2194"/>
-    <hyperlink ref="F8" r:id="rId199" display="https://cses.fi/problemset/task/2195"/>
-    <hyperlink ref="K2" r:id="rId200" display="https://cses.fi/problemset/task/1628"/>
-    <hyperlink ref="K3" r:id="rId201" display="https://cses.fi/problemset/task/2136"/>
-    <hyperlink ref="K4" r:id="rId202" display="https://cses.fi/problemset/task/2137"/>
-    <hyperlink ref="K5" r:id="rId203" display="https://cses.fi/problemset/task/2138"/>
-    <hyperlink ref="K6" r:id="rId204" display="https://cses.fi/problemset/task/2143"/>
-    <hyperlink ref="K7" r:id="rId205" display="https://cses.fi/problemset/task/2072"/>
-    <hyperlink ref="K8" r:id="rId206" display="https://cses.fi/problemset/task/2073"/>
-    <hyperlink ref="K9" r:id="rId207" display="https://cses.fi/problemset/task/2074"/>
-    <hyperlink ref="K10" r:id="rId208" display="https://cses.fi/problemset/task/2076"/>
-    <hyperlink ref="K11" r:id="rId209" display="https://cses.fi/problemset/task/2077"/>
-    <hyperlink ref="K12" r:id="rId210" display="https://cses.fi/problemset/task/2078"/>
-    <hyperlink ref="K13" r:id="rId211" display="https://cses.fi/problemset/task/2084"/>
-    <hyperlink ref="K14" r:id="rId212" display="https://cses.fi/problemset/task/2085"/>
-    <hyperlink ref="K15" r:id="rId213" display="https://cses.fi/problemset/task/2086"/>
-    <hyperlink ref="K16" r:id="rId214" display="https://cses.fi/problemset/task/2087"/>
-    <hyperlink ref="K17" r:id="rId215" display="https://cses.fi/problemset/task/2088"/>
-    <hyperlink ref="K18" r:id="rId216" display="https://cses.fi/problemset/task/2111"/>
-    <hyperlink ref="K19" r:id="rId217" display="https://cses.fi/problemset/task/2112"/>
-    <hyperlink ref="K20" r:id="rId218" display="https://cses.fi/problemset/task/2113"/>
-    <hyperlink ref="K21" r:id="rId219" display="https://cses.fi/problemset/task/2101"/>
-    <hyperlink ref="K22" r:id="rId220" display="https://cses.fi/problemset/task/2133"/>
-    <hyperlink ref="K23" r:id="rId221" display="https://cses.fi/problemset/task/2121"/>
-    <hyperlink ref="K24" r:id="rId222" display="https://cses.fi/problemset/task/2129"/>
-    <hyperlink ref="K25" r:id="rId223" display="https://cses.fi/problemset/task/2130"/>
-    <hyperlink ref="L2" r:id="rId224" display="https://cses.fi/problemset/task/1087"/>
-    <hyperlink ref="L3" r:id="rId225" display="https://cses.fi/problemset/task/1146"/>
-    <hyperlink ref="L4" r:id="rId226" display="https://cses.fi/problemset/task/1670"/>
-    <hyperlink ref="L5" r:id="rId227" display="https://cses.fi/problemset/task/1134"/>
-    <hyperlink ref="L6" r:id="rId228" display="https://cses.fi/problemset/task/1756"/>
-    <hyperlink ref="L7" r:id="rId229" display="https://cses.fi/problemset/task/2177"/>
-    <hyperlink ref="L8" r:id="rId230" display="https://cses.fi/problemset/task/2179"/>
-    <hyperlink ref="L9" r:id="rId231" display="https://cses.fi/problemset/task/2422"/>
-    <hyperlink ref="L10" r:id="rId232" display="https://cses.fi/problemset/task/1142"/>
-    <hyperlink ref="L11" r:id="rId233" display="https://cses.fi/problemset/task/2186"/>
-    <hyperlink ref="L12" r:id="rId234" display="https://cses.fi/problemset/task/2229"/>
-    <hyperlink ref="L13" r:id="rId235" display="https://cses.fi/problemset/task/1655"/>
-    <hyperlink ref="L14" r:id="rId236" display="https://cses.fi/problemset/task/1664"/>
-    <hyperlink ref="L15" r:id="rId237" display="https://cses.fi/problemset/task/1697"/>
-    <hyperlink ref="L16" r:id="rId238" display="https://cses.fi/problemset/task/1702"/>
-    <hyperlink ref="L17" r:id="rId239" display="https://cses.fi/problemset/task/1704"/>
-    <hyperlink ref="L18" r:id="rId240" display="https://cses.fi/problemset/task/1707"/>
-    <hyperlink ref="L19" r:id="rId241" display="https://cses.fi/problemset/task/1740"/>
-    <hyperlink ref="L20" r:id="rId242" display="https://cses.fi/problemset/task/2214"/>
-    <hyperlink ref="L21" r:id="rId243" display="https://cses.fi/problemset/task/2215"/>
-    <hyperlink ref="L22" r:id="rId244" display="https://cses.fi/problemset/task/1743"/>
-    <hyperlink ref="L23" r:id="rId245" display="https://cses.fi/problemset/task/2425"/>
-    <hyperlink ref="L24" r:id="rId246" display="https://cses.fi/problemset/task/1747"/>
-    <hyperlink ref="L25" r:id="rId247" display="https://cses.fi/problemset/task/1748"/>
-    <hyperlink ref="L26" r:id="rId248" display="https://cses.fi/problemset/task/1149"/>
-    <hyperlink ref="L27" r:id="rId249" display="https://cses.fi/problemset/task/1188"/>
-    <hyperlink ref="L28" r:id="rId250" display="https://cses.fi/problemset/task/2419"/>
-    <hyperlink ref="L29" r:id="rId251" display="https://cses.fi/problemset/task/1086"/>
-    <hyperlink ref="L30" r:id="rId252" display="https://cses.fi/problemset/task/1113"/>
-    <hyperlink ref="L31" r:id="rId253" display="https://cses.fi/problemset/task/2427"/>
-    <hyperlink ref="L32" r:id="rId254" display="https://cses.fi/problemset/task/1147"/>
-    <hyperlink ref="L33" r:id="rId255" display="https://cses.fi/problemset/task/1162"/>
-    <hyperlink ref="L34" r:id="rId256" display="https://cses.fi/problemset/task/1191"/>
-    <hyperlink ref="L35" r:id="rId257" display="https://cses.fi/problemset/task/2414"/>
-    <hyperlink ref="L36" r:id="rId258" display="https://cses.fi/problemset/task/2132"/>
-    <hyperlink ref="L37" r:id="rId259" display="https://cses.fi/problemset/task/1189"/>
-    <hyperlink ref="L38" r:id="rId260" display="https://cses.fi/problemset/task/1654"/>
-    <hyperlink ref="L39" r:id="rId261" display="https://cses.fi/problemset/task/1698"/>
-    <hyperlink ref="L40" r:id="rId262" display="https://cses.fi/problemset/task/2430"/>
-    <hyperlink ref="L41" r:id="rId263" display="https://cses.fi/problemset/task/1700"/>
-    <hyperlink ref="L42" r:id="rId264" display="https://cses.fi/problemset/task/2228"/>
-    <hyperlink ref="L43" r:id="rId265" display="https://cses.fi/problemset/task/1703"/>
-    <hyperlink ref="L44" r:id="rId266" display="https://cses.fi/problemset/task/1706"/>
-    <hyperlink ref="L45" r:id="rId267" display="https://cses.fi/problemset/task/1709"/>
-    <hyperlink ref="L46" r:id="rId268" display="https://cses.fi/problemset/task/1742"/>
-    <hyperlink ref="L47" r:id="rId269" display="https://cses.fi/problemset/task/2426"/>
-    <hyperlink ref="L48" r:id="rId270" display="https://cses.fi/problemset/task/1757"/>
-    <hyperlink ref="L49" r:id="rId271" display="https://cses.fi/problemset/task/2174"/>
-    <hyperlink ref="L50" r:id="rId272" display="https://cses.fi/problemset/task/2180"/>
-    <hyperlink ref="L51" r:id="rId273" display="https://cses.fi/problemset/task/2176"/>
-    <hyperlink ref="L52" r:id="rId274" display="https://cses.fi/problemset/task/2432"/>
-    <hyperlink ref="L53" r:id="rId275" display="https://cses.fi/problemset/task/2131"/>
-    <hyperlink ref="L54" r:id="rId276" display="https://cses.fi/problemset/task/1080"/>
-    <hyperlink ref="L55" r:id="rId277" display="https://cses.fi/problemset/task/1078"/>
-    <hyperlink ref="L56" r:id="rId278" display="https://cses.fi/problemset/task/2115"/>
-    <hyperlink ref="L57" r:id="rId279" display="https://cses.fi/problemset/task/2075"/>
-    <hyperlink ref="L58" r:id="rId280" display="https://cses.fi/problemset/task/2421"/>
-    <hyperlink ref="L59" r:id="rId281" display="https://cses.fi/problemset/task/1159"/>
-    <hyperlink ref="L60" r:id="rId282" display="https://cses.fi/problemset/task/1677"/>
-    <hyperlink ref="L61" r:id="rId283" display="https://cses.fi/problemset/task/1203"/>
-    <hyperlink ref="L62" r:id="rId284" display="https://cses.fi/problemset/task/2184"/>
-    <hyperlink ref="L63" r:id="rId285" display="https://cses.fi/problemset/task/1157"/>
-    <hyperlink ref="L64" r:id="rId286" display="https://cses.fi/problemset/task/1148"/>
-    <hyperlink ref="L65" r:id="rId287" display="https://cses.fi/problemset/task/2423"/>
-    <hyperlink ref="L66" r:id="rId288" display="https://cses.fi/problemset/task/1161"/>
-    <hyperlink ref="L67" r:id="rId289" display="https://cses.fi/problemset/task/1665"/>
-    <hyperlink ref="L68" r:id="rId290" display="https://cses.fi/problemset/task/1699"/>
-    <hyperlink ref="L69" r:id="rId291" display="https://cses.fi/problemset/task/2402"/>
-    <hyperlink ref="L70" r:id="rId292" display="https://cses.fi/problemset/task/1701"/>
-    <hyperlink ref="L71" r:id="rId293" display="https://cses.fi/problemset/task/1705"/>
-    <hyperlink ref="L72" r:id="rId294" display="https://cses.fi/problemset/task/1741"/>
-    <hyperlink ref="L73" r:id="rId295" display="https://cses.fi/problemset/task/2429"/>
-    <hyperlink ref="L74" r:id="rId296" display="https://cses.fi/problemset/task/1752"/>
-    <hyperlink ref="L75" r:id="rId297" display="https://cses.fi/problemset/task/1075"/>
-    <hyperlink ref="L76" r:id="rId298" display="https://cses.fi/problemset/task/2415"/>
-    <hyperlink ref="L77" r:id="rId299" display="https://cses.fi/problemset/task/1685"/>
-    <hyperlink ref="L78" r:id="rId300" display="https://cses.fi/problemset/task/2418"/>
-    <hyperlink ref="H20" r:id="rId301"/>
-    <hyperlink ref="H19" r:id="rId302"/>
-    <hyperlink ref="H21" r:id="rId303"/>
-    <hyperlink ref="H22" r:id="rId304"/>
-    <hyperlink ref="H23" r:id="rId305"/>
-    <hyperlink ref="H24" r:id="rId306"/>
-    <hyperlink ref="H25" r:id="rId307"/>
-    <hyperlink ref="H26" r:id="rId308"/>
-    <hyperlink ref="N2" r:id="rId309"/>
-    <hyperlink ref="N3" r:id="rId310"/>
-    <hyperlink ref="N4" r:id="rId311"/>
-    <hyperlink ref="N5" r:id="rId312"/>
-    <hyperlink ref="N6" r:id="rId313"/>
-    <hyperlink ref="N7" r:id="rId314"/>
-    <hyperlink ref="N8" r:id="rId315"/>
-    <hyperlink ref="N9" r:id="rId316"/>
-    <hyperlink ref="N10" r:id="rId317"/>
-    <hyperlink ref="N11" r:id="rId318"/>
-    <hyperlink ref="J23" r:id="rId319"/>
-    <hyperlink ref="J22" r:id="rId320"/>
-    <hyperlink ref="J24" r:id="rId321"/>
-    <hyperlink ref="J25" r:id="rId322"/>
-    <hyperlink ref="J26" r:id="rId323"/>
-    <hyperlink ref="J27" r:id="rId324"/>
-    <hyperlink ref="J28" r:id="rId325"/>
-    <hyperlink ref="J29" r:id="rId326"/>
-    <hyperlink ref="J30" r:id="rId327"/>
-    <hyperlink ref="J31" r:id="rId328"/>
-    <hyperlink ref="J32" r:id="rId329"/>
-    <hyperlink ref="J33" r:id="rId330"/>
-    <hyperlink ref="J34" r:id="rId331"/>
-    <hyperlink ref="J35" r:id="rId332"/>
-    <hyperlink ref="J36" r:id="rId333"/>
-    <hyperlink ref="E2" r:id="rId334"/>
-    <hyperlink ref="E3:E8" r:id="rId335" display="https://codeforces.com/gym/307122/A"/>
-    <hyperlink ref="E3" r:id="rId336"/>
-    <hyperlink ref="E4" r:id="rId337"/>
-    <hyperlink ref="E5" r:id="rId338"/>
-    <hyperlink ref="E6" r:id="rId339"/>
-    <hyperlink ref="E7" r:id="rId340"/>
-    <hyperlink ref="E8" r:id="rId341"/>
-    <hyperlink ref="E9" r:id="rId342"/>
-    <hyperlink ref="M3" r:id="rId343"/>
-    <hyperlink ref="M4" r:id="rId344"/>
-    <hyperlink ref="M5" r:id="rId345"/>
-    <hyperlink ref="M6" r:id="rId346"/>
-    <hyperlink ref="M7" r:id="rId347"/>
-    <hyperlink ref="M8" r:id="rId348"/>
-    <hyperlink ref="M9" r:id="rId349"/>
-    <hyperlink ref="M10" r:id="rId350"/>
-    <hyperlink ref="M11" r:id="rId351"/>
-    <hyperlink ref="M12" r:id="rId352"/>
-    <hyperlink ref="M13" r:id="rId353"/>
-    <hyperlink ref="C34" r:id="rId354"/>
-    <hyperlink ref="C35" r:id="rId355"/>
-    <hyperlink ref="C36" r:id="rId356"/>
-    <hyperlink ref="C37" r:id="rId357"/>
-    <hyperlink ref="C38" r:id="rId358"/>
-    <hyperlink ref="C39" r:id="rId359"/>
-    <hyperlink ref="C40" r:id="rId360"/>
-    <hyperlink ref="C41" r:id="rId361"/>
-    <hyperlink ref="C42" r:id="rId362"/>
-    <hyperlink ref="C43" r:id="rId363"/>
-    <hyperlink ref="C44" r:id="rId364"/>
-    <hyperlink ref="C45" r:id="rId365"/>
-    <hyperlink ref="C46" r:id="rId366"/>
-    <hyperlink ref="C47" r:id="rId367"/>
-    <hyperlink ref="C48" r:id="rId368"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://cses.fi/problemset/task/1068" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://cses.fi/problemset/task/1083" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://cses.fi/problemset/task/1069" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://cses.fi/problemset/task/1094" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://cses.fi/problemset/task/1070" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://cses.fi/problemset/task/1071" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://cses.fi/problemset/task/1072" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://cses.fi/problemset/task/1092" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://cses.fi/problemset/task/1617" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://cses.fi/problemset/task/1618" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://cses.fi/problemset/task/1754" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://cses.fi/problemset/task/1755" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://cses.fi/problemset/task/2205" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://cses.fi/problemset/task/2165" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://cses.fi/problemset/task/1622" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://cses.fi/problemset/task/1623" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://cses.fi/problemset/task/1624" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://cses.fi/problemset/task/2431" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://cses.fi/problemset/task/1625" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B2" r:id="rId20" display="https://cses.fi/problemset/task/1621" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B3" r:id="rId21" display="https://cses.fi/problemset/task/1084" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B4" r:id="rId22" display="https://cses.fi/problemset/task/1090" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B5" r:id="rId23" display="https://cses.fi/problemset/task/1091" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B6" r:id="rId24" display="https://cses.fi/problemset/task/1619" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B7" r:id="rId25" display="https://cses.fi/problemset/task/1629" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B8" r:id="rId26" display="https://cses.fi/problemset/task/1640" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B9" r:id="rId27" display="https://cses.fi/problemset/task/1643" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B10" r:id="rId28" display="https://cses.fi/problemset/task/1074" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B11" r:id="rId29" display="https://cses.fi/problemset/task/2183" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B12" r:id="rId30" display="https://cses.fi/problemset/task/2216" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B13" r:id="rId31" display="https://cses.fi/problemset/task/2217" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B14" r:id="rId32" display="https://cses.fi/problemset/task/1141" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B15" r:id="rId33" display="https://cses.fi/problemset/task/1073" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B16" r:id="rId34" display="https://cses.fi/problemset/task/1163" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B17" r:id="rId35" display="https://cses.fi/problemset/task/2162" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B18" r:id="rId36" display="https://cses.fi/problemset/task/2163" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B19" r:id="rId37" display="https://cses.fi/problemset/task/2168" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B20" r:id="rId38" display="https://cses.fi/problemset/task/2169" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B21" r:id="rId39" display="https://cses.fi/problemset/task/1164" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B22" r:id="rId40" display="https://cses.fi/problemset/task/1620" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B23" r:id="rId41" display="https://cses.fi/problemset/task/1630" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B24" r:id="rId42" display="https://cses.fi/problemset/task/1631" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B25" r:id="rId43" display="https://cses.fi/problemset/task/1641" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B26" r:id="rId44" display="https://cses.fi/problemset/task/1642" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B27" r:id="rId45" display="https://cses.fi/problemset/task/1645" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B28" r:id="rId46" display="https://cses.fi/problemset/task/1660" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B29" r:id="rId47" display="https://cses.fi/problemset/task/1661" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B30" r:id="rId48" display="https://cses.fi/problemset/task/1662" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B31" r:id="rId49" display="https://cses.fi/problemset/task/2428" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B32" r:id="rId50" display="https://cses.fi/problemset/task/1085" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B33" r:id="rId51" display="https://cses.fi/problemset/task/1076" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B34" r:id="rId52" display="https://cses.fi/problemset/task/1077" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B35" r:id="rId53" display="https://cses.fi/problemset/task/1632" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B36" r:id="rId54" display="https://cses.fi/problemset/task/1644" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J2" r:id="rId55" display="https://cses.fi/problemset/task/1633" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J3" r:id="rId56" display="https://cses.fi/problemset/task/1634" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J4" r:id="rId57" display="https://cses.fi/problemset/task/1635" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J5" r:id="rId58" display="https://cses.fi/problemset/task/1636" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J6" r:id="rId59" display="https://cses.fi/problemset/task/1637" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J7" r:id="rId60" display="https://cses.fi/problemset/task/1638" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J8" r:id="rId61" display="https://cses.fi/problemset/task/1158" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J9" r:id="rId62" display="https://cses.fi/problemset/task/1746" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J10" r:id="rId63" display="https://cses.fi/problemset/task/2413" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J11" r:id="rId64" display="https://cses.fi/problemset/task/1639" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J12" r:id="rId65" display="https://cses.fi/problemset/task/1744" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J13" r:id="rId66" display="https://cses.fi/problemset/task/1745" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J14" r:id="rId67" display="https://cses.fi/problemset/task/1097" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J15" r:id="rId68" display="https://cses.fi/problemset/task/1093" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J16" r:id="rId69" display="https://cses.fi/problemset/task/1145" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J17" r:id="rId70" display="https://cses.fi/problemset/task/1140" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J18" r:id="rId71" display="https://cses.fi/problemset/task/1653" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J19" r:id="rId72" display="https://cses.fi/problemset/task/2181" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J20" r:id="rId73" display="https://cses.fi/problemset/task/2220" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I2" r:id="rId74" display="https://cses.fi/problemset/task/1192" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I3" r:id="rId75" display="https://cses.fi/problemset/task/1193" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I4" r:id="rId76" display="https://cses.fi/problemset/task/1666" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I5" r:id="rId77" display="https://cses.fi/problemset/task/1667" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I6" r:id="rId78" display="https://cses.fi/problemset/task/1668" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I7" r:id="rId79" display="https://cses.fi/problemset/task/1669" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I8" r:id="rId80" display="https://cses.fi/problemset/task/1194" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I9" r:id="rId81" display="https://cses.fi/problemset/task/1671" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I10" r:id="rId82" display="https://cses.fi/problemset/task/1672" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="I11" r:id="rId83" display="https://cses.fi/problemset/task/1673" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I12" r:id="rId84" display="https://cses.fi/problemset/task/1195" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I13" r:id="rId85" display="https://cses.fi/problemset/task/1197" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I14" r:id="rId86" display="https://cses.fi/problemset/task/1196" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="I15" r:id="rId87" display="https://cses.fi/problemset/task/1678" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I16" r:id="rId88" display="https://cses.fi/problemset/task/1679" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="I17" r:id="rId89" display="https://cses.fi/problemset/task/1680" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="I18" r:id="rId90" display="https://cses.fi/problemset/task/1681" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I19" r:id="rId91" display="https://cses.fi/problemset/task/1202" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I20" r:id="rId92" display="https://cses.fi/problemset/task/1750" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I21" r:id="rId93" display="https://cses.fi/problemset/task/1160" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="I22" r:id="rId94" display="https://cses.fi/problemset/task/1751" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I23" r:id="rId95" display="https://cses.fi/problemset/task/1675" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="I24" r:id="rId96" display="https://cses.fi/problemset/task/1676" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I25" r:id="rId97" display="https://cses.fi/problemset/task/1682" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I26" r:id="rId98" display="https://cses.fi/problemset/task/1683" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I27" r:id="rId99" display="https://cses.fi/problemset/task/1684" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I28" r:id="rId100" display="https://cses.fi/problemset/task/1686" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="I29" r:id="rId101" display="https://cses.fi/problemset/task/1691" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I30" r:id="rId102" display="https://cses.fi/problemset/task/1692" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I31" r:id="rId103" display="https://cses.fi/problemset/task/1693" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="I32" r:id="rId104" display="https://cses.fi/problemset/task/1690" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I33" r:id="rId105" display="https://cses.fi/problemset/task/1689" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="I34" r:id="rId106" display="https://cses.fi/problemset/task/1694" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I35" r:id="rId107" display="https://cses.fi/problemset/task/1695" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="I36" r:id="rId108" display="https://cses.fi/problemset/task/1696" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="I37" r:id="rId109" display="https://cses.fi/problemset/task/1711" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G2" r:id="rId110" display="https://cses.fi/problemset/task/1646" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G3" r:id="rId111" display="https://cses.fi/problemset/task/1647" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G4" r:id="rId112" display="https://cses.fi/problemset/task/1648" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G5" r:id="rId113" display="https://cses.fi/problemset/task/1649" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G6" r:id="rId114" display="https://cses.fi/problemset/task/1650" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G7" r:id="rId115" display="https://cses.fi/problemset/task/1651" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="G8" r:id="rId116" display="https://cses.fi/problemset/task/1652" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G9" r:id="rId117" display="https://cses.fi/problemset/task/1143" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="G10" r:id="rId118" display="https://cses.fi/problemset/task/1749" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G11" r:id="rId119" display="https://cses.fi/problemset/task/1144" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G12" r:id="rId120" display="https://cses.fi/problemset/task/2166" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G13" r:id="rId121" display="https://cses.fi/problemset/task/2206" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G14" r:id="rId122" display="https://cses.fi/problemset/task/1190" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G15" r:id="rId123" display="https://cses.fi/problemset/task/1734" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G16" r:id="rId124" display="https://cses.fi/problemset/task/2416" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G17" r:id="rId125" display="https://cses.fi/problemset/task/1739" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G18" r:id="rId126" display="https://cses.fi/problemset/task/1735" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G19" r:id="rId127" display="https://cses.fi/problemset/task/1736" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G20" r:id="rId128" display="https://cses.fi/problemset/task/1737" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="H2" r:id="rId129" display="https://cses.fi/problemset/task/1674" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="H3" r:id="rId130" display="https://cses.fi/problemset/task/1130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="H4" r:id="rId131" display="https://cses.fi/problemset/task/1131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="H5" r:id="rId132" display="https://cses.fi/problemset/task/1132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="H6" r:id="rId133" display="https://cses.fi/problemset/task/1133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="H7" r:id="rId134" display="https://cses.fi/problemset/task/1687" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="H8" r:id="rId135" display="https://cses.fi/problemset/task/1688" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="H9" r:id="rId136" display="https://cses.fi/problemset/task/1135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="H10" r:id="rId137" display="https://cses.fi/problemset/task/1136" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="H11" r:id="rId138" display="https://cses.fi/problemset/task/1137" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="H12" r:id="rId139" display="https://cses.fi/problemset/task/1138" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="H13" r:id="rId140" display="https://cses.fi/problemset/task/2134" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="H14" r:id="rId141" display="https://cses.fi/problemset/task/1139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="H15" r:id="rId142" display="https://cses.fi/problemset/task/2079" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="H16" r:id="rId143" display="https://cses.fi/problemset/task/2080" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="H17" r:id="rId144" display="https://cses.fi/problemset/task/2081" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C2" r:id="rId145" display="https://cses.fi/problemset/task/2164" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C3" r:id="rId146" display="https://cses.fi/problemset/task/1095" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C4" r:id="rId147" display="https://cses.fi/problemset/task/1712" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C5" r:id="rId148" display="https://cses.fi/problemset/task/1713" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C6" r:id="rId149" display="https://cses.fi/problemset/task/1081" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C7" r:id="rId150" display="https://cses.fi/problemset/task/1082" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C8" r:id="rId151" display="https://cses.fi/problemset/task/2182" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C9" r:id="rId152" display="https://cses.fi/problemset/task/2185" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C10" r:id="rId153" display="https://cses.fi/problemset/task/2417" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C11" r:id="rId154" display="https://cses.fi/problemset/task/1079" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C12" r:id="rId155" display="https://cses.fi/problemset/task/1715" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C13" r:id="rId156" display="https://cses.fi/problemset/task/1716" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C14" r:id="rId157" display="https://cses.fi/problemset/task/1717" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C15" r:id="rId158" display="https://cses.fi/problemset/task/2064" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C16" r:id="rId159" display="https://cses.fi/problemset/task/2187" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C17" r:id="rId160" display="https://cses.fi/problemset/task/2209" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C18" r:id="rId161" display="https://cses.fi/problemset/task/2210" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C19" r:id="rId162" display="https://cses.fi/problemset/task/1722" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C20" r:id="rId163" display="https://cses.fi/problemset/task/1096" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C21" r:id="rId164" display="https://cses.fi/problemset/task/1723" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C22" r:id="rId165" display="https://cses.fi/problemset/task/1724" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C23" r:id="rId166" display="https://cses.fi/problemset/task/1725" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C24" r:id="rId167" display="https://cses.fi/problemset/task/1726" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C25" r:id="rId168" display="https://cses.fi/problemset/task/1727" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C26" r:id="rId169" display="https://cses.fi/problemset/task/1728" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C27" r:id="rId170" display="https://cses.fi/problemset/task/1729" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C28" r:id="rId171" display="https://cses.fi/problemset/task/1730" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C29" r:id="rId172" display="https://cses.fi/problemset/task/1098" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C30" r:id="rId173" display="https://cses.fi/problemset/task/1099" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C31" r:id="rId174" display="https://cses.fi/problemset/task/2207" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C32" r:id="rId175" display="https://cses.fi/problemset/task/2208" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="D2" r:id="rId176" display="https://cses.fi/problemset/task/1731" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D3" r:id="rId177" display="https://cses.fi/problemset/task/1753" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="D4" r:id="rId178" display="https://cses.fi/problemset/task/1732" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="D5" r:id="rId179" display="https://cses.fi/problemset/task/1733" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="D6" r:id="rId180" display="https://cses.fi/problemset/task/1110" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="D7" r:id="rId181" display="https://cses.fi/problemset/task/1111" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="D8" r:id="rId182" display="https://cses.fi/problemset/task/1112" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D9" r:id="rId183" display="https://cses.fi/problemset/task/2420" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="D10" r:id="rId184" display="https://cses.fi/problemset/task/2102" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="D11" r:id="rId185" display="https://cses.fi/problemset/task/2103" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="D12" r:id="rId186" display="https://cses.fi/problemset/task/2104" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D13" r:id="rId187" display="https://cses.fi/problemset/task/2105" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="D14" r:id="rId188" display="https://cses.fi/problemset/task/2106" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="D15" r:id="rId189" display="https://cses.fi/problemset/task/2107" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="D16" r:id="rId190" display="https://cses.fi/problemset/task/2108" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D17" r:id="rId191" display="https://cses.fi/problemset/task/2109" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="D18" r:id="rId192" display="https://cses.fi/problemset/task/2110" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="F2" r:id="rId193" display="https://cses.fi/problemset/task/2189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="F3" r:id="rId194" display="https://cses.fi/problemset/task/2190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="F4" r:id="rId195" display="https://cses.fi/problemset/task/2191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="F5" r:id="rId196" display="https://cses.fi/problemset/task/2192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="F6" r:id="rId197" display="https://cses.fi/problemset/task/2193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="F7" r:id="rId198" display="https://cses.fi/problemset/task/2194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="F8" r:id="rId199" display="https://cses.fi/problemset/task/2195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="K2" r:id="rId200" display="https://cses.fi/problemset/task/1628" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="K3" r:id="rId201" display="https://cses.fi/problemset/task/2136" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="K4" r:id="rId202" display="https://cses.fi/problemset/task/2137" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="K5" r:id="rId203" display="https://cses.fi/problemset/task/2138" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="K6" r:id="rId204" display="https://cses.fi/problemset/task/2143" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="K7" r:id="rId205" display="https://cses.fi/problemset/task/2072" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="K8" r:id="rId206" display="https://cses.fi/problemset/task/2073" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="K9" r:id="rId207" display="https://cses.fi/problemset/task/2074" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="K10" r:id="rId208" display="https://cses.fi/problemset/task/2076" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="K11" r:id="rId209" display="https://cses.fi/problemset/task/2077" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="K12" r:id="rId210" display="https://cses.fi/problemset/task/2078" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="K13" r:id="rId211" display="https://cses.fi/problemset/task/2084" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="K14" r:id="rId212" display="https://cses.fi/problemset/task/2085" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="K15" r:id="rId213" display="https://cses.fi/problemset/task/2086" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="K16" r:id="rId214" display="https://cses.fi/problemset/task/2087" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="K17" r:id="rId215" display="https://cses.fi/problemset/task/2088" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="K18" r:id="rId216" display="https://cses.fi/problemset/task/2111" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="K19" r:id="rId217" display="https://cses.fi/problemset/task/2112" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="K20" r:id="rId218" display="https://cses.fi/problemset/task/2113" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="K21" r:id="rId219" display="https://cses.fi/problemset/task/2101" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="K22" r:id="rId220" display="https://cses.fi/problemset/task/2133" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="K23" r:id="rId221" display="https://cses.fi/problemset/task/2121" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="K24" r:id="rId222" display="https://cses.fi/problemset/task/2129" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="K25" r:id="rId223" display="https://cses.fi/problemset/task/2130" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="L2" r:id="rId224" display="https://cses.fi/problemset/task/1087" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="L3" r:id="rId225" display="https://cses.fi/problemset/task/1146" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="L4" r:id="rId226" display="https://cses.fi/problemset/task/1670" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="L5" r:id="rId227" display="https://cses.fi/problemset/task/1134" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="L6" r:id="rId228" display="https://cses.fi/problemset/task/1756" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="L7" r:id="rId229" display="https://cses.fi/problemset/task/2177" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="L8" r:id="rId230" display="https://cses.fi/problemset/task/2179" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="L9" r:id="rId231" display="https://cses.fi/problemset/task/2422" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="L10" r:id="rId232" display="https://cses.fi/problemset/task/1142" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="L11" r:id="rId233" display="https://cses.fi/problemset/task/2186" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="L12" r:id="rId234" display="https://cses.fi/problemset/task/2229" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="L13" r:id="rId235" display="https://cses.fi/problemset/task/1655" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="L14" r:id="rId236" display="https://cses.fi/problemset/task/1664" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="L15" r:id="rId237" display="https://cses.fi/problemset/task/1697" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="L16" r:id="rId238" display="https://cses.fi/problemset/task/1702" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="L17" r:id="rId239" display="https://cses.fi/problemset/task/1704" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="L18" r:id="rId240" display="https://cses.fi/problemset/task/1707" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="L19" r:id="rId241" display="https://cses.fi/problemset/task/1740" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="L20" r:id="rId242" display="https://cses.fi/problemset/task/2214" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="L21" r:id="rId243" display="https://cses.fi/problemset/task/2215" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="L22" r:id="rId244" display="https://cses.fi/problemset/task/1743" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="L23" r:id="rId245" display="https://cses.fi/problemset/task/2425" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="L24" r:id="rId246" display="https://cses.fi/problemset/task/1747" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="L25" r:id="rId247" display="https://cses.fi/problemset/task/1748" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="L26" r:id="rId248" display="https://cses.fi/problemset/task/1149" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="L27" r:id="rId249" display="https://cses.fi/problemset/task/1188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="L28" r:id="rId250" display="https://cses.fi/problemset/task/2419" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="L29" r:id="rId251" display="https://cses.fi/problemset/task/1086" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="L30" r:id="rId252" display="https://cses.fi/problemset/task/1113" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="L31" r:id="rId253" display="https://cses.fi/problemset/task/2427" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="L32" r:id="rId254" display="https://cses.fi/problemset/task/1147" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="L33" r:id="rId255" display="https://cses.fi/problemset/task/1162" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="L34" r:id="rId256" display="https://cses.fi/problemset/task/1191" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="L35" r:id="rId257" display="https://cses.fi/problemset/task/2414" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="L36" r:id="rId258" display="https://cses.fi/problemset/task/2132" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="L37" r:id="rId259" display="https://cses.fi/problemset/task/1189" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="L38" r:id="rId260" display="https://cses.fi/problemset/task/1654" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="L39" r:id="rId261" display="https://cses.fi/problemset/task/1698" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="L40" r:id="rId262" display="https://cses.fi/problemset/task/2430" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="L41" r:id="rId263" display="https://cses.fi/problemset/task/1700" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="L42" r:id="rId264" display="https://cses.fi/problemset/task/2228" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="L43" r:id="rId265" display="https://cses.fi/problemset/task/1703" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="L44" r:id="rId266" display="https://cses.fi/problemset/task/1706" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="L45" r:id="rId267" display="https://cses.fi/problemset/task/1709" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="L46" r:id="rId268" display="https://cses.fi/problemset/task/1742" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="L47" r:id="rId269" display="https://cses.fi/problemset/task/2426" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="L48" r:id="rId270" display="https://cses.fi/problemset/task/1757" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="L49" r:id="rId271" display="https://cses.fi/problemset/task/2174" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="L50" r:id="rId272" display="https://cses.fi/problemset/task/2180" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="L51" r:id="rId273" display="https://cses.fi/problemset/task/2176" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="L52" r:id="rId274" display="https://cses.fi/problemset/task/2432" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="L53" r:id="rId275" display="https://cses.fi/problemset/task/2131" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="L54" r:id="rId276" display="https://cses.fi/problemset/task/1080" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="L55" r:id="rId277" display="https://cses.fi/problemset/task/1078" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="L56" r:id="rId278" display="https://cses.fi/problemset/task/2115" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="L57" r:id="rId279" display="https://cses.fi/problemset/task/2075" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="L58" r:id="rId280" display="https://cses.fi/problemset/task/2421" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="L59" r:id="rId281" display="https://cses.fi/problemset/task/1159" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="L60" r:id="rId282" display="https://cses.fi/problemset/task/1677" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="L61" r:id="rId283" display="https://cses.fi/problemset/task/1203" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="L62" r:id="rId284" display="https://cses.fi/problemset/task/2184" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="L63" r:id="rId285" display="https://cses.fi/problemset/task/1157" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="L64" r:id="rId286" display="https://cses.fi/problemset/task/1148" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="L65" r:id="rId287" display="https://cses.fi/problemset/task/2423" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="L66" r:id="rId288" display="https://cses.fi/problemset/task/1161" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="L67" r:id="rId289" display="https://cses.fi/problemset/task/1665" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="L68" r:id="rId290" display="https://cses.fi/problemset/task/1699" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="L69" r:id="rId291" display="https://cses.fi/problemset/task/2402" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="L70" r:id="rId292" display="https://cses.fi/problemset/task/1701" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="L71" r:id="rId293" display="https://cses.fi/problemset/task/1705" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="L72" r:id="rId294" display="https://cses.fi/problemset/task/1741" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="L73" r:id="rId295" display="https://cses.fi/problemset/task/2429" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="L74" r:id="rId296" display="https://cses.fi/problemset/task/1752" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="L75" r:id="rId297" display="https://cses.fi/problemset/task/1075" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="L76" r:id="rId298" display="https://cses.fi/problemset/task/2415" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="L77" r:id="rId299" display="https://cses.fi/problemset/task/1685" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="L78" r:id="rId300" display="https://cses.fi/problemset/task/2418" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="H20" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="H19" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="H21" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="H22" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="H23" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="H24" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="H25" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="H26" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="N2" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="N3" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="N4" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="N5" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="N6" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="N7" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="N8" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="N9" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="N10" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="N11" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="J23" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="J22" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="J24" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="J25" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="J26" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="J27" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="J28" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="J29" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="J30" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="J31" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="J32" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="J33" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="J34" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="J35" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="J36" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="E2" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="E3:E8" r:id="rId335" display="https://codeforces.com/gym/307122/A" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="E3" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="E4" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="E5" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="E6" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="E7" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="E8" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="E9" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="M3" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="M4" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="M5" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="M6" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="M7" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="M8" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="M9" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="M10" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="M11" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="M12" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="M13" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C34" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C35" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C36" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C37" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C38" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C39" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C40" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C41" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C42" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C43" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C44" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C45" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C46" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C47" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C48" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C33" r:id="rId369" xr:uid="{00B00A75-0B23-4388-B944-825A8DF08445}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId369"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId370"/>
 </worksheet>
 </file>
--- a/most_important_problems.xlsx
+++ b/most_important_problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\competitive programming\Competitive-programming\Competitive-programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1DCA96-2C17-44F3-9B31-1DB8CBB752A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2CB244-36FF-4BC3-8AA5-B0FD069C0113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,7 +1530,7 @@
       <c r="B2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
